--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Asli Motor</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Suku Bunga (%)</t>
+  </si>
+  <si>
+    <t>Check lagi</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -186,17 +189,17 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,13 +508,13 @@
     <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -533,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -544,7 +547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -555,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -563,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -571,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -582,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -590,15 +593,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -608,8 +614,11 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -620,17 +629,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -675,16 +684,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -703,10 +712,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <f>(B3*30)/B4</f>
         <v>12</v>
       </c>
@@ -715,7 +724,7 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>200000</v>
       </c>
     </row>
@@ -723,7 +732,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>14000000</v>
       </c>
     </row>
@@ -731,7 +740,7 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2000000</v>
       </c>
     </row>
@@ -739,7 +748,7 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>22</v>
       </c>
     </row>
@@ -747,54 +756,54 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <f>(B10-B11-B13+B7)</f>
         <v>12200000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <f>B3/12</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <f>(C14*(B12/100)*C15)</f>
         <v>8052000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <f>ROUND((C14+C16)/B5, -3)</f>
         <v>1688000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>B17*36</f>
         <v>60768000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>B18-B17</f>
         <v>59080000</v>
       </c>

--- a/Documents/Backlog.xlsx
+++ b/Documents/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Asli Motor</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Suku Bunga (%)</t>
-  </si>
-  <si>
-    <t>Check lagi</t>
   </si>
 </sst>
 </file>
@@ -496,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" activeCellId="1" sqref="B8 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,13 +505,13 @@
     <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -525,7 +522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -536,7 +533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -547,7 +544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -558,7 +555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -566,15 +563,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -593,7 +593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -604,7 +604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -614,11 +614,8 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -629,17 +626,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -678,7 +675,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,7 +705,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -717,7 +714,7 @@
       </c>
       <c r="B5" s="4">
         <f>(B3*30)/B4</f>
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -793,19 +790,19 @@
       </c>
       <c r="B17" s="6">
         <f>ROUND((C14+C16)/B5, -3)</f>
-        <v>1688000</v>
+        <v>563000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="2">
         <f>B17*36</f>
-        <v>60768000</v>
+        <v>20268000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="2">
         <f>B18-B17</f>
-        <v>59080000</v>
+        <v>19705000</v>
       </c>
     </row>
   </sheetData>
